--- a/UnknownFunctions.xlsx
+++ b/UnknownFunctions.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unknown\Documents\GitHub\GeniusApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Tim\Documents\GitHub\LogicA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>Array #</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Multiply</t>
   </si>
   <si>
-    <t>Subtract</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
-    <t>The total amount of closed areas</t>
-  </si>
-  <si>
     <t>numberOfClosedArea</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>xCounter</t>
   </si>
   <si>
-    <t>Count the amount of number "x"</t>
-  </si>
-  <si>
     <t>isContain</t>
   </si>
   <si>
@@ -95,18 +86,12 @@
     <t>greatestCommonFactor</t>
   </si>
   <si>
-    <t>Find GCF</t>
-  </si>
-  <si>
     <t>leastCommonMultiple</t>
   </si>
   <si>
     <t>totalDigitCount</t>
   </si>
   <si>
-    <t>Find LCM</t>
-  </si>
-  <si>
     <t>digitDifference</t>
   </si>
   <si>
@@ -116,9 +101,6 @@
     <t>printSumOfDigit</t>
   </si>
   <si>
-    <t>Sum of the individual numbers</t>
-  </si>
-  <si>
     <t>Difficulty</t>
   </si>
   <si>
@@ -167,52 +149,255 @@
     <t>Wait List</t>
   </si>
   <si>
-    <t>3?7=10</t>
-  </si>
-  <si>
-    <t>3?7=4</t>
-  </si>
-  <si>
-    <t>3?7=21</t>
-  </si>
-  <si>
-    <t>40?8=4</t>
-  </si>
-  <si>
-    <t>1000?9=1</t>
-  </si>
-  <si>
-    <t>1000?9=9</t>
-  </si>
-  <si>
-    <t>if x = 1, 1000?9=1</t>
-  </si>
-  <si>
-    <t>if x = 1, 1000?9=1, 3?7=0</t>
-  </si>
-  <si>
-    <t>if x = 1, 1000?9=0, 10?21=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verified </t>
   </si>
   <si>
-    <t>3?7=1, 45?45=45</t>
-  </si>
-  <si>
-    <t>3?7=21, 2?8=8</t>
-  </si>
-  <si>
-    <t>1000?9=5</t>
-  </si>
-  <si>
     <t>Total amount of digits combined</t>
+  </si>
+  <si>
+    <t>3 ? 7 = 10</t>
+  </si>
+  <si>
+    <t>3 ? 7 = 21</t>
+  </si>
+  <si>
+    <t>40 ? 8 = 4</t>
+  </si>
+  <si>
+    <t>Example_1</t>
+  </si>
+  <si>
+    <t>Example_2</t>
+  </si>
+  <si>
+    <t>32 ? 17 = 49</t>
+  </si>
+  <si>
+    <t>3 ? 17 = 14</t>
+  </si>
+  <si>
+    <t>0 ? 56 = 56</t>
+  </si>
+  <si>
+    <t>30 ? 0 = 0</t>
+  </si>
+  <si>
+    <t>11 ? 37 = 0</t>
+  </si>
+  <si>
+    <t>23 ? 54 = 32</t>
+  </si>
+  <si>
+    <t>56 ? 56 = 65</t>
+  </si>
+  <si>
+    <t>if x = 1, 96 ? 56 = 0</t>
+  </si>
+  <si>
+    <t>100 ? 9 = 9</t>
+  </si>
+  <si>
+    <t>100 ? 9 = 1</t>
+  </si>
+  <si>
+    <t>if x = 1, 100 ? 9 = 1</t>
+  </si>
+  <si>
+    <t>if x = 1, 77 ? 56 = 0</t>
+  </si>
+  <si>
+    <t>if x = 1, 10 ? 21 = 1</t>
+  </si>
+  <si>
+    <t>if x = 1, 100 ? 9 = 0</t>
+  </si>
+  <si>
+    <t>3 ? 7 = 1</t>
+  </si>
+  <si>
+    <t>45 ? 45 = 45</t>
+  </si>
+  <si>
+    <t>2 ? 8 = 8</t>
+  </si>
+  <si>
+    <t>100 ? 9 = 4</t>
+  </si>
+  <si>
+    <t>Total amount of closed areas</t>
+  </si>
+  <si>
+    <t>Total amount of digit "x"</t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>LCM</t>
+  </si>
+  <si>
+    <t>0 ? 0 = 2</t>
+  </si>
+  <si>
+    <t>13 ? 28 = 0</t>
+  </si>
+  <si>
+    <t>100 ? 5 = 2</t>
+  </si>
+  <si>
+    <t>Sum of digits in individual numbers and join together</t>
+  </si>
+  <si>
+    <t>23 ? 99 = 518</t>
+  </si>
+  <si>
+    <t>0 ? 13 = 4</t>
+  </si>
+  <si>
+    <t>Total amount of 1 in binary representation of the numbers</t>
+  </si>
+  <si>
+    <t>7 ? 7 = 6</t>
+  </si>
+  <si>
+    <t>255 ? 1024 = 9</t>
+  </si>
+  <si>
+    <t>Sum of least significant digits in binary representation</t>
+  </si>
+  <si>
+    <t>16 ? 11 = 111</t>
+  </si>
+  <si>
+    <t>523 ? 0 = 11</t>
+  </si>
+  <si>
+    <t>Difference in least significant digits in binary representation</t>
+  </si>
+  <si>
+    <t>Difference of the numbers</t>
+  </si>
+  <si>
+    <t>10 ? 50 = 0</t>
+  </si>
+  <si>
+    <t>23 ? 19 = 110</t>
+  </si>
+  <si>
+    <t>23 ? 25 = 84</t>
+  </si>
+  <si>
+    <t>999 ? 1 = 1</t>
+  </si>
+  <si>
+    <t>32 ? 21 = 11</t>
+  </si>
+  <si>
+    <t>26 ? 16= 1</t>
+  </si>
+  <si>
+    <t>9011 ? 10 = 1000000032</t>
+  </si>
+  <si>
+    <t>233 ? 333 = 5100</t>
+  </si>
+  <si>
+    <t>52 ? 12 = 10</t>
+  </si>
+  <si>
+    <t>18 ? 912 = 21</t>
+  </si>
+  <si>
+    <t>Difference in sum of digits in individual numbers</t>
+  </si>
+  <si>
+    <t>Sum of sum of digits in individual numbers</t>
+  </si>
+  <si>
+    <t>59 ? 1 = 13</t>
+  </si>
+  <si>
+    <t>25 ? 999 = 20</t>
+  </si>
+  <si>
+    <t>AddDigitUntilOne</t>
+  </si>
+  <si>
+    <t>Sum of digits in individual numbers Until one digit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">93 ? 29 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 9 + 3 + 2 + 9 = 23 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 + 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,13 +453,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +463,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -321,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -344,51 +530,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -408,16 +594,16 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="3" tint="0.39988402966399123"/>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="3" tint="0.39994506668294322"/>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -731,409 +917,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="6"/>
-    <col min="6" max="6" width="19.77734375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="20.109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="9.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="B23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:H1048576"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:XFD1048576 A1:F1048576">
+  <conditionalFormatting sqref="I1:XFD1048576 A1:G1048576">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/UnknownFunctions.xlsx
+++ b/UnknownFunctions.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Tim\Documents\GitHub\LogicA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unknown\Documents\GitHub\LogicA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,29 +455,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,7 +501,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,40 +535,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,29 +571,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -919,533 +912,532 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="H1:H1048576"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:XFD1048576 A1:G1048576">
+  <conditionalFormatting sqref="I1:XFD1 A1:G1 A3:G1048576 I3:XFD1048576">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/UnknownFunctions.xlsx
+++ b/UnknownFunctions.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unknown\Documents\GitHub\LogicA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Tim\Documents\GitHub\LogicA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
   <si>
     <t>Array #</t>
   </si>
@@ -44,12 +44,6 @@
     <t>subtraction</t>
   </si>
   <si>
-    <t>Multiply</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
     <t>numberOfClosedArea</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
   </si>
   <si>
     <t>Difference in least significant digits in binary representation</t>
-  </si>
-  <si>
-    <t>Difference of the numbers</t>
   </si>
   <si>
     <t>10 ? 50 = 0</t>
@@ -393,11 +384,23 @@
       <t xml:space="preserve"> 5</t>
     </r>
   </si>
+  <si>
+    <t>Multiply of the numbers</t>
+  </si>
+  <si>
+    <t>Difference between the numbers</t>
+  </si>
+  <si>
+    <t>Require Extra Random Number</t>
+  </si>
+  <si>
+    <t>Sum of the numbers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -547,6 +550,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -554,7 +594,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,18 +611,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -914,76 +963,76 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -991,28 +1040,28 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1020,424 +1069,430 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G9:G11"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:XFD1 A1:G1 A3:G1048576 I3:XFD1048576">
+  <conditionalFormatting sqref="I1:XFD1 A1:G1 A3:G9 I3:XFD1048576 A12:G1048576 A10:F11">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/UnknownFunctions.xlsx
+++ b/UnknownFunctions.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Tim\Documents\GitHub\LogicA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unknown\Documents\GitHub\LogicA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
   <si>
     <t>Array #</t>
   </si>
@@ -396,12 +397,180 @@
   <si>
     <t>Sum of the numbers</t>
   </si>
+  <si>
+    <t>sumSmaller</t>
+  </si>
+  <si>
+    <t>Sum the individual numbers of the smaller number</t>
+  </si>
+  <si>
+    <t>sumLarger</t>
+  </si>
+  <si>
+    <t>Sum the individual numbers of the larger number</t>
+  </si>
+  <si>
+    <t>totalDigitCountSmaller</t>
+  </si>
+  <si>
+    <t>totalDigitCountLarger</t>
+  </si>
+  <si>
+    <t>Total amount of digits combined in the smaller number</t>
+  </si>
+  <si>
+    <t>Total amount of digits combined in the larger number</t>
+  </si>
+  <si>
+    <t>342 ? 124442 = 3</t>
+  </si>
+  <si>
+    <t>342 ? 124442 = 6</t>
+  </si>
+  <si>
+    <t>bothEqual</t>
+  </si>
+  <si>
+    <t>Are both inputs equal?</t>
+  </si>
+  <si>
+    <t>101 ? 101 = 1          2 ? 3 = 0</t>
+  </si>
+  <si>
+    <t>bothNotEqual</t>
+  </si>
+  <si>
+    <t>Are both inputs not equal?</t>
+  </si>
+  <si>
+    <t>101 ? 101 = 0          2 ? 3 = 1</t>
+  </si>
+  <si>
+    <t>printSmaller</t>
+  </si>
+  <si>
+    <t>Print the smaller number of the inputs</t>
+  </si>
+  <si>
+    <t>11 ? 2 = 2</t>
+  </si>
+  <si>
+    <t>printLarger</t>
+  </si>
+  <si>
+    <t>Print the larger number of the inputs</t>
+  </si>
+  <si>
+    <t>11 ? 2 = 11</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in descending order</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in asceding order</t>
+  </si>
+  <si>
+    <t>reorderDescend</t>
+  </si>
+  <si>
+    <t>reorderAscend</t>
+  </si>
+  <si>
+    <t>reorderDescendSmall</t>
+  </si>
+  <si>
+    <t>reorderDescendLarge</t>
+  </si>
+  <si>
+    <t>reorderAscendSmall</t>
+  </si>
+  <si>
+    <t>reorderAscendLarge</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in desceding order for the smaller input</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in desceding order for the larger input</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in asceding order for the smaller input</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in asceding order for the larger input</t>
+  </si>
+  <si>
+    <t>digitCountMultiplication</t>
+  </si>
+  <si>
+    <t>Multiply the amount of digit counts for each inputs</t>
+  </si>
+  <si>
+    <t>292 ? 283 -&gt; 3 * 3 = 9</t>
+  </si>
+  <si>
+    <t>digitCountSubtraction</t>
+  </si>
+  <si>
+    <t>Difference between the amount of digit counts for each input</t>
+  </si>
+  <si>
+    <t>292 ? 283 -&gt; 3 - 3 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 2399         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 ? 71 = 179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 9932         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 ? 71 = 9710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 23          </t>
+  </si>
+  <si>
+    <t>90 ? 71 = 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 99        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  90 ? 71 = 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 32          </t>
+  </si>
+  <si>
+    <t>90 ? 71 = 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 99          </t>
+  </si>
+  <si>
+    <t>90 ? 71 = 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 ? 1 = 1       </t>
+  </si>
+  <si>
+    <t>99 ? 103 = 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 ? 1 = 4       </t>
+  </si>
+  <si>
+    <t>99 ? 103 = 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +647,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +693,18 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -588,13 +782,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -618,6 +814,15 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,13 +839,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -959,47 +1182,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -1051,17 +1274,8 @@
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1080,8 +1294,21 @@
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1100,8 +1327,20 @@
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1120,8 +1359,20 @@
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="6">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1140,8 +1391,20 @@
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="6">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1160,8 +1423,11 @@
       <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1180,11 +1446,14 @@
       <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1203,9 +1472,12 @@
       <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="15"/>
+      <c r="H10" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1224,9 +1496,12 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1245,8 +1520,11 @@
       <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1265,8 +1543,11 @@
       <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1285,8 +1566,11 @@
       <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1305,8 +1589,11 @@
       <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1325,166 +1612,473 @@
       <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
+      <c r="B17" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H17" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>79</v>
+      <c r="B18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H18" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H19" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
+      <c r="B20" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
+      <c r="B21" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>33</v>
+      <c r="B22" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1492,8 +2086,18 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="G9:G11"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:XFD1 A1:G1 A3:G9 I3:XFD1048576 A12:G1048576 A10:F11">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="I1:XFD1 A1:G1 A3:G9 A10:F11 I18:XFD19 L20:XFD21 I22:XFD1048576 A12:G16 A17:A18 E17:G18 I6:K17 L3:XFD17 A19:G1048576">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:K5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:K20">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/UnknownFunctions.xlsx
+++ b/UnknownFunctions.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unknown\Documents\GitHub\LogicA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Tim\Documents\GitHub\LogicA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="258">
   <si>
     <t>Array #</t>
   </si>
@@ -318,19 +317,492 @@
     <t>Sum of digits in individual numbers Until one digit</t>
   </si>
   <si>
+    <t>Multiply of the numbers</t>
+  </si>
+  <si>
+    <t>Difference between the numbers</t>
+  </si>
+  <si>
+    <t>Require Extra Random Number</t>
+  </si>
+  <si>
+    <t>Sum of the numbers</t>
+  </si>
+  <si>
+    <t>sumSmaller</t>
+  </si>
+  <si>
+    <t>Sum the individual numbers of the smaller number</t>
+  </si>
+  <si>
+    <t>sumLarger</t>
+  </si>
+  <si>
+    <t>Sum the individual numbers of the larger number</t>
+  </si>
+  <si>
+    <t>totalDigitCountSmaller</t>
+  </si>
+  <si>
+    <t>totalDigitCountLarger</t>
+  </si>
+  <si>
+    <t>Total amount of digits combined in the smaller number</t>
+  </si>
+  <si>
+    <t>Total amount of digits combined in the larger number</t>
+  </si>
+  <si>
+    <t>342 ? 124442 = 3</t>
+  </si>
+  <si>
+    <t>342 ? 124442 = 6</t>
+  </si>
+  <si>
+    <t>bothEqual</t>
+  </si>
+  <si>
+    <t>Are both inputs equal?</t>
+  </si>
+  <si>
+    <t>bothNotEqual</t>
+  </si>
+  <si>
+    <t>Are both inputs not equal?</t>
+  </si>
+  <si>
+    <t>printSmaller</t>
+  </si>
+  <si>
+    <t>Print the smaller number of the inputs</t>
+  </si>
+  <si>
+    <t>11 ? 2 = 2</t>
+  </si>
+  <si>
+    <t>printLarger</t>
+  </si>
+  <si>
+    <t>Print the larger number of the inputs</t>
+  </si>
+  <si>
+    <t>11 ? 2 = 11</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in descending order</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in asceding order</t>
+  </si>
+  <si>
+    <t>reorderDescend</t>
+  </si>
+  <si>
+    <t>reorderAscend</t>
+  </si>
+  <si>
+    <t>reorderDescendSmall</t>
+  </si>
+  <si>
+    <t>reorderDescendLarge</t>
+  </si>
+  <si>
+    <t>reorderAscendSmall</t>
+  </si>
+  <si>
+    <t>reorderAscendLarge</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in desceding order for the smaller input</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in desceding order for the larger input</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in asceding order for the smaller input</t>
+  </si>
+  <si>
+    <t>Reorder the individual numbers in asceding order for the larger input</t>
+  </si>
+  <si>
+    <t>digitCountMultiplication</t>
+  </si>
+  <si>
+    <t>Multiply the amount of digit counts for each inputs</t>
+  </si>
+  <si>
+    <t>292 ? 283 -&gt; 3 * 3 = 9</t>
+  </si>
+  <si>
+    <t>digitCountSubtraction</t>
+  </si>
+  <si>
+    <t>Difference between the amount of digit counts for each input</t>
+  </si>
+  <si>
+    <t>292 ? 283 -&gt; 3 - 3 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 2399         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 ? 71 = 179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 9932         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 ? 71 = 9710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 23          </t>
+  </si>
+  <si>
+    <t>90 ? 71 = 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 99        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  90 ? 71 = 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 32          </t>
+  </si>
+  <si>
+    <t>90 ? 71 = 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 ? 99 = 99          </t>
+  </si>
+  <si>
+    <t>90 ? 71 = 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 ? 1 = 1       </t>
+  </si>
+  <si>
+    <t>99 ? 103 = 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 ? 1 = 4       </t>
+  </si>
+  <si>
+    <t>99 ? 103 = 4</t>
+  </si>
+  <si>
+    <t>sumOfReverseLarger</t>
+  </si>
+  <si>
+    <t>subOfReverseLarger</t>
+  </si>
+  <si>
+    <t>sumOfReverseSmaller</t>
+  </si>
+  <si>
+    <t>subOfReverseSmaller</t>
+  </si>
+  <si>
+    <t>23 ? 54 = 68</t>
+  </si>
+  <si>
+    <t>100 ? 9 = 10</t>
+  </si>
+  <si>
+    <t>23 ? 54 = 86</t>
+  </si>
+  <si>
+    <t>100 ? 9 = 109</t>
+  </si>
+  <si>
+    <t>56 ? 60 = 50</t>
+  </si>
+  <si>
+    <t>56 ? 60 = 5</t>
+  </si>
+  <si>
+    <t>100 ? 9 = 8</t>
+  </si>
+  <si>
+    <t>100 ? 9 = 91</t>
+  </si>
+  <si>
+    <t>23 ? 59 = 7640</t>
+  </si>
+  <si>
+    <t>2 ? 3 = 0</t>
+  </si>
+  <si>
+    <t>2 ? 3 = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 ? 101 = 1  </t>
+  </si>
+  <si>
+    <t>101 ? 101 = 0</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">93 ? 29 </t>
+      <t xml:space="preserve">93 ? 29  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+  </si>
+  <si>
+    <t>99 ? 100 = 899</t>
+  </si>
+  <si>
+    <t>9's complement - Smaller</t>
+  </si>
+  <si>
+    <t>9's complement - Larger</t>
+  </si>
+  <si>
+    <t>23 ? 59 = 76</t>
+  </si>
+  <si>
+    <t>23 ? 59 = 40</t>
+  </si>
+  <si>
+    <t>99 ? 100 = 0</t>
+  </si>
+  <si>
+    <t>9's complement - All</t>
+  </si>
+  <si>
+    <t>0 ? 0 = 0</t>
+  </si>
+  <si>
+    <t>199 ? 28 = 18</t>
+  </si>
+  <si>
+    <t>199 ? 28 = 92</t>
+  </si>
+  <si>
+    <t>26 ? 96 = 61</t>
+  </si>
+  <si>
+    <t>** truncate decimal</t>
+  </si>
+  <si>
+    <t>92 ? 3 = 47 **</t>
+  </si>
+  <si>
+    <t>23 ? 54 = 4532</t>
+  </si>
+  <si>
+    <t>100 ? 9 = 9001</t>
+  </si>
+  <si>
+    <t>headAndTail</t>
+  </si>
+  <si>
+    <t>tailAndhead</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>reverseAll</t>
+  </si>
+  <si>
+    <t>269 ? 88 = 9</t>
+  </si>
+  <si>
+    <t>oddDigitOnly</t>
+  </si>
+  <si>
+    <t>evenDigitOnly</t>
+  </si>
+  <si>
+    <t>269 ? 88 = 2688</t>
+  </si>
+  <si>
+    <t>125 ? 291 = 1591</t>
+  </si>
+  <si>
+    <t>125 ? 291 = 22</t>
+  </si>
+  <si>
+    <t>oddPositionOnly</t>
+  </si>
+  <si>
+    <t>evenPositionOnly</t>
+  </si>
+  <si>
+    <t>269 ? 88 = 298</t>
+  </si>
+  <si>
+    <t>125 ? 291 = 159</t>
+  </si>
+  <si>
+    <t>269 ? 88 = 68</t>
+  </si>
+  <si>
+    <t>125 ? 291 = 221</t>
+  </si>
+  <si>
+    <t>digitMedian</t>
+  </si>
+  <si>
+    <t>962 ? 12 = 2</t>
+  </si>
+  <si>
+    <t>67 ? 10 = 3 **</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo </t>
+  </si>
+  <si>
+    <t>95 ? 17 = 10</t>
+  </si>
+  <si>
+    <t>26 ? 75 = 0</t>
+  </si>
+  <si>
+    <t>26 ? 75 = 26</t>
+  </si>
+  <si>
+    <t>removeLargestDigit</t>
+  </si>
+  <si>
+    <t>removeSmallerDigit</t>
+  </si>
+  <si>
+    <t>156 ? 66 = 15</t>
+  </si>
+  <si>
+    <t>156 ? 76 = 1566</t>
+  </si>
+  <si>
+    <t>156 ? 66 = 5666</t>
+  </si>
+  <si>
+    <t>10 ? 101 = 111</t>
+  </si>
+  <si>
+    <t>removeRepeatedDigit</t>
+  </si>
+  <si>
+    <t>123 ? 456 = 123456</t>
+  </si>
+  <si>
+    <t>112 ? 5232 = 1253</t>
+  </si>
+  <si>
+    <t>26 ? 12 = 4224</t>
+  </si>
+  <si>
+    <t>101 ? 99 = 20288</t>
+  </si>
+  <si>
+    <t>95 ? 17 = 5 **</t>
+  </si>
+  <si>
+    <t>26 ? 12 = 1301</t>
+  </si>
+  <si>
+    <t>101 ? 99 = 44</t>
+  </si>
+  <si>
+    <t>printAll</t>
+  </si>
+  <si>
+    <t>1 ? 952 = 1952</t>
+  </si>
+  <si>
+    <t>0 ? 12 = 12</t>
+  </si>
+  <si>
+    <t>sumOfDoubledDigits</t>
+  </si>
+  <si>
+    <t>doubleDigits</t>
+  </si>
+  <si>
+    <t>halfDigits</t>
+  </si>
+  <si>
+    <t>26 ? 12 = 66</t>
+  </si>
+  <si>
+    <t>101 ? 99 = 290</t>
+  </si>
+  <si>
+    <t>subOfDoubledDigits</t>
+  </si>
+  <si>
+    <t>26 ? 12 = 18</t>
+  </si>
+  <si>
+    <t>101 ? 99 = 114</t>
+  </si>
+  <si>
+    <t>sumOfHalvedDigits</t>
+  </si>
+  <si>
+    <t>subOfHalvedDigits</t>
+  </si>
+  <si>
+    <t>26 ? 12 = 14</t>
+  </si>
+  <si>
+    <t>26 ? 12 = 12</t>
+  </si>
+  <si>
+    <t>105? 99 = 101</t>
+  </si>
+  <si>
+    <t>105 ? 99 = 97</t>
+  </si>
+  <si>
+    <t>indicatedDigit</t>
+  </si>
+  <si>
+    <t>36 ? 895 = 8</t>
+  </si>
+  <si>
+    <t>9 ? 125 = 9</t>
+  </si>
+  <si>
+    <t>head digit of first number + tail digit of second number</t>
+  </si>
+  <si>
+    <t>Reverse of larger number + the another number</t>
+  </si>
+  <si>
+    <t>Return the digit in the position that indicated by the first non-zero digit (Repeat from start if necessary)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-&gt;</t>
+      <t>Special case</t>
     </r>
     <r>
       <rPr>
@@ -340,237 +812,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 9 + 3 + 2 + 9 = 23 </t>
+      <t xml:space="preserve"> : 0 ? 0 = 0</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2 + 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-  </si>
-  <si>
-    <t>Multiply of the numbers</t>
-  </si>
-  <si>
-    <t>Difference between the numbers</t>
-  </si>
-  <si>
-    <t>Require Extra Random Number</t>
-  </si>
-  <si>
-    <t>Sum of the numbers</t>
-  </si>
-  <si>
-    <t>sumSmaller</t>
-  </si>
-  <si>
-    <t>Sum the individual numbers of the smaller number</t>
-  </si>
-  <si>
-    <t>sumLarger</t>
-  </si>
-  <si>
-    <t>Sum the individual numbers of the larger number</t>
-  </si>
-  <si>
-    <t>totalDigitCountSmaller</t>
-  </si>
-  <si>
-    <t>totalDigitCountLarger</t>
-  </si>
-  <si>
-    <t>Total amount of digits combined in the smaller number</t>
-  </si>
-  <si>
-    <t>Total amount of digits combined in the larger number</t>
-  </si>
-  <si>
-    <t>342 ? 124442 = 3</t>
-  </si>
-  <si>
-    <t>342 ? 124442 = 6</t>
-  </si>
-  <si>
-    <t>bothEqual</t>
-  </si>
-  <si>
-    <t>Are both inputs equal?</t>
-  </si>
-  <si>
-    <t>101 ? 101 = 1          2 ? 3 = 0</t>
-  </si>
-  <si>
-    <t>bothNotEqual</t>
-  </si>
-  <si>
-    <t>Are both inputs not equal?</t>
-  </si>
-  <si>
-    <t>101 ? 101 = 0          2 ? 3 = 1</t>
-  </si>
-  <si>
-    <t>printSmaller</t>
-  </si>
-  <si>
-    <t>Print the smaller number of the inputs</t>
-  </si>
-  <si>
-    <t>11 ? 2 = 2</t>
-  </si>
-  <si>
-    <t>printLarger</t>
-  </si>
-  <si>
-    <t>Print the larger number of the inputs</t>
-  </si>
-  <si>
-    <t>11 ? 2 = 11</t>
-  </si>
-  <si>
-    <t>Reorder the individual numbers in descending order</t>
-  </si>
-  <si>
-    <t>Reorder the individual numbers in asceding order</t>
-  </si>
-  <si>
-    <t>reorderDescend</t>
-  </si>
-  <si>
-    <t>reorderAscend</t>
-  </si>
-  <si>
-    <t>reorderDescendSmall</t>
-  </si>
-  <si>
-    <t>reorderDescendLarge</t>
-  </si>
-  <si>
-    <t>reorderAscendSmall</t>
-  </si>
-  <si>
-    <t>reorderAscendLarge</t>
-  </si>
-  <si>
-    <t>Reorder the individual numbers in desceding order for the smaller input</t>
-  </si>
-  <si>
-    <t>Reorder the individual numbers in desceding order for the larger input</t>
-  </si>
-  <si>
-    <t>Reorder the individual numbers in asceding order for the smaller input</t>
-  </si>
-  <si>
-    <t>Reorder the individual numbers in asceding order for the larger input</t>
-  </si>
-  <si>
-    <t>digitCountMultiplication</t>
-  </si>
-  <si>
-    <t>Multiply the amount of digit counts for each inputs</t>
-  </si>
-  <si>
-    <t>292 ? 283 -&gt; 3 * 3 = 9</t>
-  </si>
-  <si>
-    <t>digitCountSubtraction</t>
-  </si>
-  <si>
-    <t>Difference between the amount of digit counts for each input</t>
-  </si>
-  <si>
-    <t>292 ? 283 -&gt; 3 - 3 = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 ? 99 = 2399         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90 ? 71 = 179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 ? 99 = 9932         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90 ? 71 = 9710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 ? 99 = 23          </t>
-  </si>
-  <si>
-    <t>90 ? 71 = 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 ? 99 = 99        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  90 ? 71 = 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 ? 99 = 32          </t>
-  </si>
-  <si>
-    <t>90 ? 71 = 71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 ? 99 = 99          </t>
-  </si>
-  <si>
-    <t>90 ? 71 = 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 ? 1 = 1       </t>
-  </si>
-  <si>
-    <t>99 ? 103 = 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 ? 1 = 4       </t>
-  </si>
-  <si>
-    <t>99 ? 103 = 4</t>
+  </si>
+  <si>
+    <t>10 ? 35 = 1</t>
+  </si>
+  <si>
+    <t>36 ? 636 = 3</t>
+  </si>
+  <si>
+    <t>mostOccurence</t>
+  </si>
+  <si>
+    <t>divAndMod</t>
+  </si>
+  <si>
+    <t>95 ? 17 = 510</t>
+  </si>
+  <si>
+    <t>sumAndSub</t>
+  </si>
+  <si>
+    <t>79 ? 24 = 10355</t>
+  </si>
+  <si>
+    <t>26 ? 26 = 520</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,14 +899,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -655,6 +921,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -708,7 +996,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -781,16 +1069,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -807,26 +1119,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,6 +1144,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
@@ -847,7 +1192,335 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1182,47 +1855,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="26.85546875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="15"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1254,8 +1929,11 @@
       <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -1263,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>46</v>
@@ -1275,7 +1953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1283,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -1295,20 +1973,22 @@
         <v>24</v>
       </c>
       <c r="H4" s="6">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1316,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -1328,19 +2008,22 @@
         <v>24</v>
       </c>
       <c r="H5" s="6">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1360,19 +2043,19 @@
         <v>24</v>
       </c>
       <c r="H6" s="6">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1392,19 +2075,19 @@
         <v>24</v>
       </c>
       <c r="H7" s="6">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1423,11 +2106,8 @@
       <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1446,14 +2126,29 @@
       <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>100</v>
+      <c r="G9" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="H9" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1472,12 +2167,24 @@
       <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1496,12 +2203,24 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1521,10 +2240,22 @@
         <v>24</v>
       </c>
       <c r="H12" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1544,10 +2275,19 @@
         <v>24</v>
       </c>
       <c r="H13" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1567,10 +2307,19 @@
         <v>24</v>
       </c>
       <c r="H14" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1590,10 +2339,19 @@
         <v>24</v>
       </c>
       <c r="H15" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1613,207 +2371,354 @@
         <v>24</v>
       </c>
       <c r="H16" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>123</v>
+      <c r="B18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="6">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="6">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="6">
+        <v>52</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="6">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="6">
+        <v>54</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="6">
+        <v>55</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="25"/>
+    </row>
+    <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="6">
+        <v>56</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -1832,8 +2737,23 @@
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="6">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -1852,8 +2772,20 @@
       <c r="F28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="6">
+        <v>58</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -1872,8 +2804,20 @@
       <c r="F29" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="6">
+        <v>59</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -1892,8 +2836,20 @@
       <c r="F30" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="6">
+        <v>60</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -1912,14 +2868,20 @@
       <c r="F31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="6">
+        <v>61</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -1938,14 +2900,20 @@
       <c r="F32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="6">
+        <v>62</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -1964,14 +2932,26 @@
       <c r="F33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="H33" s="6">
+        <v>63</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O33" s="26"/>
+      <c r="P33" s="25"/>
+    </row>
+    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -1990,66 +2970,99 @@
       <c r="F34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="H34" s="6">
+        <v>64</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="K34" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="H35" s="6">
+        <v>65</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="J35" s="5"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="K35" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="H36" s="6">
+        <v>66</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="K36" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -2059,45 +3072,276 @@
       <c r="C37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>97</v>
+      <c r="D37" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="H37" s="6">
+        <v>67</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="K37" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="4"/>
+    <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="6">
+        <v>68</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="K38" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="N38" s="2"/>
     </row>
+    <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="6">
+        <v>69</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" s="27"/>
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="6">
+        <v>70</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="5"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="5"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="5"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="5"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="53" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="5"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="25"/>
+    </row>
+    <row r="54" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="5"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="5"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="5"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="5"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="5"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="5"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="23"/>
+    </row>
+    <row r="60" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="5"/>
+      <c r="N60" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N44:P44"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N18:P18"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:XFD1 A1:G1 A3:G9 A10:F11 I18:XFD19 L20:XFD21 I22:XFD1048576 A12:G16 A17:A18 E17:G18 I6:K17 L3:XFD17 A19:G1048576">
-    <cfRule type="expression" dxfId="2" priority="7">
+  <conditionalFormatting sqref="I1 A1:G1 A3:G9 A10:F11 L20:XFD20 A12:G16 A17:A18 E17:G18 I6:K8 L3:XFD8 A19:G1048576 I9:J10 M9:XFD12 M1:XFD1 I13:XFD16 M17:XFD17 I18:N18 Q18:XFD18 I19:XFD19 I22:J23 M21:XFD23 Q24:XFD25 I24:M25 I26:XFD27 I61:XFD1048576 Q28:XFD60">
+    <cfRule type="expression" dxfId="43" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:K5">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="42" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:K20">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="41" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L10">
+    <cfRule type="expression" dxfId="40" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J11">
+    <cfRule type="expression" dxfId="39" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:L11">
+    <cfRule type="expression" dxfId="38" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:J12">
+    <cfRule type="expression" dxfId="37" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:L12">
+    <cfRule type="expression" dxfId="36" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:L17">
+    <cfRule type="expression" dxfId="35" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="expression" dxfId="34" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="expression" dxfId="33" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="32" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="31" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="expression" dxfId="30" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="expression" dxfId="29" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="expression" dxfId="28" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="expression" dxfId="27" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:P43 I44:M44 I45:P48">
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:P28">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:P52 I53:M53 I54:P58 I59:N59 I60:P60">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:P32 I33:M33 I34:P38 I39:N39 I40:P40">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/UnknownFunctions.xlsx
+++ b/UnknownFunctions.xlsx
@@ -822,9 +822,6 @@
     <t>36 ? 636 = 3</t>
   </si>
   <si>
-    <t>mostOccurence</t>
-  </si>
-  <si>
     <t>divAndMod</t>
   </si>
   <si>
@@ -838,6 +835,9 @@
   </si>
   <si>
     <t>26 ? 26 = 520</t>
+  </si>
+  <si>
+    <t>mostOccurrence</t>
   </si>
 </sst>
 </file>
@@ -1132,6 +1132,36 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,12 +1174,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,30 +1181,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1192,167 +1192,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.39985351115451523"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1857,9 +1697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1873,29 +1713,29 @@
     <col min="8" max="8" width="4.42578125" style="6" customWidth="1"/>
     <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="50.5703125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="26.85546875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="15"/>
+    <col min="11" max="12" width="26.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="11"/>
     <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="16"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1981,10 +1821,10 @@
       <c r="J4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2016,10 +1856,10 @@
       <c r="J5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="13" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2051,7 +1891,7 @@
       <c r="J6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2083,7 +1923,7 @@
       <c r="J7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2126,7 +1966,7 @@
       <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="22" t="s">
         <v>99</v>
       </c>
       <c r="H9" s="6">
@@ -2138,13 +1978,13 @@
       <c r="J9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2167,20 +2007,20 @@
       <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="6">
         <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2203,20 +2043,20 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="6">
         <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2245,13 +2085,13 @@
       <c r="I12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2280,10 +2120,10 @@
       <c r="I13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2312,10 +2152,10 @@
       <c r="I14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="13" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2344,10 +2184,10 @@
       <c r="I15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2379,10 +2219,10 @@
       <c r="J16" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2408,10 +2248,10 @@
       <c r="I17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2437,20 +2277,20 @@
       <c r="I18" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="25"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2480,7 +2320,7 @@
       <c r="L19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2506,10 +2346,10 @@
       <c r="I20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2538,10 +2378,10 @@
       <c r="I21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2570,10 +2410,10 @@
       <c r="I22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="13" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2602,10 +2442,10 @@
       <c r="I23" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="13" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2634,17 +2474,17 @@
       <c r="I24" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="N24" s="24" t="s">
+      <c r="N24" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="25"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -2671,20 +2511,20 @@
       <c r="I25" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="25"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2711,10 +2551,10 @@
       <c r="I26" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="13" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2741,15 +2581,15 @@
         <v>57</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2776,13 +2616,13 @@
         <v>58</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="L28" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2810,10 +2650,10 @@
       <c r="I29" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="13" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2842,10 +2682,10 @@
       <c r="I30" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="13" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2874,10 +2714,10 @@
       <c r="I31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="13" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2906,10 +2746,10 @@
       <c r="I32" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="13" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2939,17 +2779,17 @@
         <v>231</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N33" s="24" t="s">
+      <c r="N33" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="25"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="17"/>
     </row>
     <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -2977,13 +2817,13 @@
         <v>226</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="M34" s="15" t="s">
+      <c r="M34" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N34" s="2"/>
@@ -3014,13 +2854,13 @@
         <v>229</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N35" s="2"/>
@@ -3051,13 +2891,13 @@
         <v>234</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="M36" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N36" s="2"/>
@@ -3072,7 +2912,7 @@
       <c r="C37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="13" t="s">
         <v>172</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3085,13 +2925,13 @@
         <v>237</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="2"/>
@@ -3104,13 +2944,13 @@
         <v>238</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="M38" s="15" t="s">
+      <c r="M38" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N38" s="2"/>
@@ -3125,39 +2965,39 @@
       <c r="J39" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="N39" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="23"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="20"/>
     </row>
     <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="6">
         <v>70</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J40" s="5"/>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="13" t="s">
         <v>250</v>
       </c>
       <c r="N40" s="2"/>
     </row>
     <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J44" s="5"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="25"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J45" s="5"/>
@@ -3177,9 +3017,9 @@
     </row>
     <row r="53" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J53" s="5"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="25"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="17"/>
     </row>
     <row r="54" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J54" s="5"/>
@@ -3203,9 +3043,9 @@
     </row>
     <row r="59" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J59" s="5"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="23"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="20"/>
     </row>
     <row r="60" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J60" s="5"/>
@@ -3213,6 +3053,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="N53:P53"/>
     <mergeCell ref="N59:P59"/>
     <mergeCell ref="N33:P33"/>
@@ -3220,128 +3064,124 @@
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N18:P18"/>
   </mergeCells>
   <conditionalFormatting sqref="I1 A1:G1 A3:G9 A10:F11 L20:XFD20 A12:G16 A17:A18 E17:G18 I6:K8 L3:XFD8 A19:G1048576 I9:J10 M9:XFD12 M1:XFD1 I13:XFD16 M17:XFD17 I18:N18 Q18:XFD18 I19:XFD19 I22:J23 M21:XFD23 Q24:XFD25 I24:M25 I26:XFD27 I61:XFD1048576 Q28:XFD60">
-    <cfRule type="expression" dxfId="43" priority="30">
+    <cfRule type="expression" dxfId="23" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:K5">
-    <cfRule type="expression" dxfId="42" priority="25">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:K20">
-    <cfRule type="expression" dxfId="41" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L10">
-    <cfRule type="expression" dxfId="40" priority="23">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J11">
-    <cfRule type="expression" dxfId="39" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:L11">
-    <cfRule type="expression" dxfId="38" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J12">
-    <cfRule type="expression" dxfId="37" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:L12">
-    <cfRule type="expression" dxfId="36" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:L17">
-    <cfRule type="expression" dxfId="35" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="34" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="33" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="32" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="29" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="28" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="27" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:P43 I44:M44 I45:P48">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:P28">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:P52 I53:M53 I54:P58 I59:N59 I60:P60">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:P32 I33:M33 I34:P38 I39:N39 I40:P40">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/UnknownFunctions.xlsx
+++ b/UnknownFunctions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Tim\Documents\GitHub\LogicA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unknown\Documents\GitHub\LogicA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="304">
   <si>
     <t>Array #</t>
   </si>
@@ -614,9 +614,6 @@
     <t>headAndTail</t>
   </si>
   <si>
-    <t>tailAndhead</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -839,11 +836,170 @@
   <si>
     <t>mostOccurrence</t>
   </si>
+  <si>
+    <t>Change to 71?</t>
+  </si>
+  <si>
+    <t>if x = 9, 93 ? 29  = 5</t>
+  </si>
+  <si>
+    <t>if x = 1, 93 ? 29 = 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Special case : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x != 0</t>
+    </r>
+  </si>
+  <si>
+    <t>additionOfModuloX</t>
+  </si>
+  <si>
+    <t>tailAndHead</t>
+  </si>
+  <si>
+    <t>headAndHead</t>
+  </si>
+  <si>
+    <t>tailAndTail</t>
+  </si>
+  <si>
+    <t>199 ? 28 = 12</t>
+  </si>
+  <si>
+    <t>199 ? 28 = 98</t>
+  </si>
+  <si>
+    <t>insertXInbetween</t>
+  </si>
+  <si>
+    <t>if x = 1, 93 ? 29 = 9131219</t>
+  </si>
+  <si>
+    <t>if x = 9, 93 ? 29  = 9939299</t>
+  </si>
+  <si>
+    <t>moduloAB</t>
+  </si>
+  <si>
+    <t>moduloBA</t>
+  </si>
+  <si>
+    <t>moduloBigSmall</t>
+  </si>
+  <si>
+    <t>95 ? 17 = 17</t>
+  </si>
+  <si>
+    <t>26 ? 75 = 23</t>
+  </si>
+  <si>
+    <t>amountDigitGreaterThan5</t>
+  </si>
+  <si>
+    <t>amountDigitLessThan5</t>
+  </si>
+  <si>
+    <t>26 ? 75 =3</t>
+  </si>
+  <si>
+    <t>50 ? 17 = 2</t>
+  </si>
+  <si>
+    <t>26 ? 75 =1</t>
+  </si>
+  <si>
+    <t>All even - return 0</t>
+  </si>
+  <si>
+    <t>All odd - return 0</t>
+  </si>
+  <si>
+    <t>All same digits - return 0</t>
+  </si>
+  <si>
+    <t>removeDigitGreaterThan5</t>
+  </si>
+  <si>
+    <t>removeDigitLessThan5</t>
+  </si>
+  <si>
+    <t>amountDigitEven</t>
+  </si>
+  <si>
+    <t>amountDigitOdd</t>
+  </si>
+  <si>
+    <t>sumOfAllEvenDigit</t>
+  </si>
+  <si>
+    <t>sumOfAllOddDigit</t>
+  </si>
+  <si>
+    <t>productOfAllEvenDigit</t>
+  </si>
+  <si>
+    <t>31 ? 75 = 4-0</t>
+  </si>
+  <si>
+    <t>differenceEvenOddDigit</t>
+  </si>
+  <si>
+    <t>multiplyEvenOddDigit</t>
+  </si>
+  <si>
+    <t>multiplyAllDigit</t>
+  </si>
+  <si>
+    <t>factorialFirstDigit</t>
+  </si>
+  <si>
+    <t>factorialLastDigit</t>
+  </si>
+  <si>
+    <t>pythagoreanTheorem</t>
+  </si>
+  <si>
+    <t>factorialSmallestDigit</t>
+  </si>
+  <si>
+    <t>factorialLargestDigit</t>
+  </si>
+  <si>
+    <t>log 100 = 2</t>
+  </si>
+  <si>
+    <t>rotationByHourHand</t>
+  </si>
+  <si>
+    <t>mod by 12</t>
+  </si>
+  <si>
+    <t>rotationByMinuteHand</t>
+  </si>
+  <si>
+    <t>mod by 60</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,7 +1258,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,7 +1275,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,23 +1299,17 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1183,6 +1332,24 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
@@ -1192,7 +1359,79 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1695,85 +1934,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="26.85546875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="11"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.5546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="26.88671875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="10"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -1793,7 +2032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1812,7 +2051,7 @@
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="14">
         <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1821,14 +2060,14 @@
       <c r="J4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1847,7 +2086,7 @@
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="14">
         <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1856,14 +2095,14 @@
       <c r="J5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1882,7 +2121,7 @@
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="14">
         <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1891,11 +2130,14 @@
       <c r="J6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1914,7 +2156,7 @@
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="14">
         <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1923,11 +2165,14 @@
       <c r="J7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1947,7 +2192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1966,29 +2211,29 @@
       <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="14">
         <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K9" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2007,24 +2252,24 @@
       <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="6">
+      <c r="G10" s="20"/>
+      <c r="H10" s="14">
         <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2043,24 +2288,24 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="6">
+      <c r="G11" s="21"/>
+      <c r="H11" s="14">
         <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2079,23 +2324,23 @@
       <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="14">
         <v>42</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2114,20 +2359,23 @@
       <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="14">
         <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2146,20 +2394,23 @@
       <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="14">
         <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2178,20 +2429,23 @@
       <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="14">
         <v>45</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="12" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2210,23 +2464,26 @@
       <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="14">
         <v>46</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>188</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2242,57 +2499,60 @@
       <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="14">
         <v>47</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="14">
         <v>48</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="15" t="s">
+      <c r="M18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
-    </row>
-    <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2308,11 +2568,11 @@
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="14">
         <v>49</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>186</v>
@@ -2320,11 +2580,11 @@
       <c r="L19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2340,20 +2600,26 @@
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="14">
         <v>50</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K20" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2372,20 +2638,26 @@
       <c r="F21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="14">
         <v>51</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2404,20 +2676,23 @@
       <c r="F22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="14">
         <v>52</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2436,20 +2711,23 @@
       <c r="F23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="14">
         <v>53</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K23" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2468,25 +2746,28 @@
       <c r="F24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="14">
         <v>54</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="L24" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N24" s="15" t="s">
+      <c r="M24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+    </row>
+    <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -2505,28 +2786,28 @@
       <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="14">
         <v>55</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
-    </row>
-    <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -2545,20 +2826,23 @@
       <c r="F26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="14">
         <v>56</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -2577,23 +2861,23 @@
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="14">
         <v>57</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -2612,20 +2896,23 @@
       <c r="F28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="14">
         <v>58</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="L28" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -2644,20 +2931,26 @@
       <c r="F29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="14">
         <v>59</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K29" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -2676,20 +2969,26 @@
       <c r="F30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="14">
         <v>60</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K30" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -2708,20 +3007,23 @@
       <c r="F31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="14">
         <v>61</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="L31" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -2740,20 +3042,23 @@
       <c r="F32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="14">
         <v>62</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K32" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -2772,26 +3077,29 @@
       <c r="F33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="14">
         <v>63</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="L33" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="N33" s="15" t="s">
+      <c r="M33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+    </row>
+    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -2810,25 +3118,25 @@
       <c r="F34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="14">
         <v>64</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="13" t="s">
+      <c r="L34" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="10" t="s">
         <v>24</v>
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -2847,25 +3155,25 @@
       <c r="F35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="14">
         <v>65</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="10" t="s">
         <v>26</v>
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -2884,25 +3192,25 @@
       <c r="F36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="14">
         <v>66</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="13" t="s">
+      <c r="L36" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -2912,275 +3220,555 @@
       <c r="C37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>172</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="6">
+      <c r="G37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="14">
         <v>67</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="14">
+        <v>68</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="13" t="s">
+      <c r="J38" s="5"/>
+      <c r="K38" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L38" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="6">
-        <v>68</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="L38" s="13" t="s">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="14">
+        <v>69</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="J39" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="6">
-        <v>69</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J39" s="5" t="s">
+      <c r="N39" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N39" s="18" t="s">
+      <c r="O39" s="29"/>
+      <c r="P39" s="30"/>
+    </row>
+    <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="14">
+        <v>70</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-    </row>
-    <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="6">
-        <v>70</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>250</v>
+      <c r="M40" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J44" s="5"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="17"/>
-    </row>
-    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J45" s="5"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="5"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="14">
+        <v>71</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="14">
+        <v>72</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="14">
+        <v>73</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O44" s="29"/>
+      <c r="P44" s="30"/>
+    </row>
+    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="14">
+        <v>74</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="14">
+        <v>75</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="J46" s="5"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="N46" s="15"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="14">
+        <v>76</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="J47" s="5"/>
+      <c r="K47" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>273</v>
+      </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="14">
+        <v>77</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="J48" s="5"/>
+      <c r="K48" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="53" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J53" s="5"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="17"/>
-    </row>
-    <row r="54" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J54" s="5"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="14">
+        <v>78</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="30"/>
+    </row>
+    <row r="50" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="14">
+        <v>79</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="14">
+        <v>80</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="J55" s="5"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N55" s="25"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="27"/>
+    </row>
+    <row r="56" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="J56" s="5"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="J58" s="5"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="J59" s="5"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="20"/>
-    </row>
-    <row r="60" spans="10:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J60" s="5"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="N60" s="2"/>
     </row>
+    <row r="61" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="30"/>
+    </row>
+    <row r="62" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N59:P59"/>
+  <mergeCells count="12">
+    <mergeCell ref="N61:P61"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N55:P55"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1 A1:G1 A3:G9 A10:F11 L20:XFD20 A12:G16 A17:A18 E17:G18 I6:K8 L3:XFD8 A19:G1048576 I9:J10 M9:XFD12 M1:XFD1 I13:XFD16 M17:XFD17 I18:N18 Q18:XFD18 I19:XFD19 I22:J23 M21:XFD23 Q24:XFD25 I24:M25 I26:XFD27 I61:XFD1048576 Q28:XFD60">
-    <cfRule type="expression" dxfId="23" priority="30">
+  <conditionalFormatting sqref="I1 A1:G1 A3:G9 A10:F11 L20:XFD20 A12:G16 A17:A18 E17:G18 I6:K8 L3:XFD8 A19:G1048576 I9:J10 M9:XFD12 M1:XFD1 I13:XFD16 M17:XFD17 I18:N18 Q18:XFD18 I19:XFD19 I22:J23 M21:XFD23 Q24:XFD25 I24:M25 I26:XFD27 Q28:XFD62 I63:XFD1048576">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:K5">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="31" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:K20">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L10">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J11">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:L11">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J12">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:L12">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:L17">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="21" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="expression" dxfId="18" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="expression" dxfId="17" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J43 I44:N44 M43:P43 I45:P45 M46 I46:J50 M47:P48 M49:N49 M50:P50">
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46">
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:P28">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:P54 I55:M55 I56:P60 I61:N61 I62:P62 I51:J51 M51:P51">
     <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="N55">
     <cfRule type="expression" dxfId="11" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+  <conditionalFormatting sqref="I33:M33 I34:P38 I39:N39 I40:P41 I42:J42 M42:P42 I29:P32">
     <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="N33">
     <cfRule type="expression" dxfId="9" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
+  <conditionalFormatting sqref="K42">
     <cfRule type="expression" dxfId="8" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25">
+  <conditionalFormatting sqref="L42">
     <cfRule type="expression" dxfId="7" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:P43 I44:M44 I45:P48">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="K43">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="L43">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:P28">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="K46:L49">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:P52 I53:M53 I54:P58 I59:N59 I60:P60">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="K50">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="L50">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:P32 I33:M33 I34:P38 I39:N39 I40:P40">
+  <conditionalFormatting sqref="K51">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
+  <conditionalFormatting sqref="L51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/UnknownFunctions.xlsx
+++ b/UnknownFunctions.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="337">
   <si>
     <t>Array #</t>
   </si>
@@ -599,9 +599,6 @@
     <t>26 ? 96 = 61</t>
   </si>
   <si>
-    <t>** truncate decimal</t>
-  </si>
-  <si>
     <t>92 ? 3 = 47 **</t>
   </si>
   <si>
@@ -791,28 +788,6 @@
     <t>Return the digit in the position that indicated by the first non-zero digit (Repeat from start if necessary)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Special case</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 0 ? 0 = 0</t>
-    </r>
-  </si>
-  <si>
     <t>10 ? 35 = 1</t>
   </si>
   <si>
@@ -835,9 +810,6 @@
   </si>
   <si>
     <t>mostOccurrence</t>
-  </si>
-  <si>
-    <t>Change to 71?</t>
   </si>
   <si>
     <t>if x = 9, 93 ? 29  = 5</t>
@@ -981,9 +953,6 @@
     <t>factorialLargestDigit</t>
   </si>
   <si>
-    <t>log 100 = 2</t>
-  </si>
-  <si>
     <t>rotationByHourHand</t>
   </si>
   <si>
@@ -994,6 +963,117 @@
   </si>
   <si>
     <t>mod by 60</t>
+  </si>
+  <si>
+    <t>truncate decimal</t>
+  </si>
+  <si>
+    <t>Special case: 0 ? 0 = 0</t>
+  </si>
+  <si>
+    <t>productOfAllOddDigit</t>
+  </si>
+  <si>
+    <t>differenceOddEvenDigit</t>
+  </si>
+  <si>
+    <t>0?1</t>
+  </si>
+  <si>
+    <t>46 ? 24 = 424</t>
+  </si>
+  <si>
+    <t>54 ? 68 = 4</t>
+  </si>
+  <si>
+    <t>46 ? 24 = 6</t>
+  </si>
+  <si>
+    <t>54 ? 68 = 568</t>
+  </si>
+  <si>
+    <t>57 ? 94 = 1</t>
+  </si>
+  <si>
+    <t>37 ? 6 =1</t>
+  </si>
+  <si>
+    <t>57 ? 94 = 3</t>
+  </si>
+  <si>
+    <t>37 ? 6 =2</t>
+  </si>
+  <si>
+    <t>79 ? 96 = 6</t>
+  </si>
+  <si>
+    <t>6 ? 12 = 8</t>
+  </si>
+  <si>
+    <t>79 ? 96 = 25</t>
+  </si>
+  <si>
+    <t>6 ? 12 = 1</t>
+  </si>
+  <si>
+    <t>56 ? 38 = 48</t>
+  </si>
+  <si>
+    <t>79 ? 82 = 16</t>
+  </si>
+  <si>
+    <t>56 ? 38 = 15</t>
+  </si>
+  <si>
+    <t>79 ? 82 = 63</t>
+  </si>
+  <si>
+    <t>59 ? 73 = 6</t>
+  </si>
+  <si>
+    <t>76 ? 55 = 120</t>
+  </si>
+  <si>
+    <t>8 ? 36 = 6</t>
+  </si>
+  <si>
+    <t>94 ? 81 =362880</t>
+  </si>
+  <si>
+    <t>50 ? 54 = 120</t>
+  </si>
+  <si>
+    <t>8 ? 36 = 120</t>
+  </si>
+  <si>
+    <t>34 ? 59 = 68</t>
+  </si>
+  <si>
+    <t>78 ? 23 = 81</t>
+  </si>
+  <si>
+    <t>0 ? 77 = 5</t>
+  </si>
+  <si>
+    <t>28 ? 26 = 6</t>
+  </si>
+  <si>
+    <t>41 ? 50 = 31</t>
+  </si>
+  <si>
+    <t>98 ? 16 = 54</t>
+  </si>
+  <si>
+    <t>27 ? 25 = 140</t>
+  </si>
+  <si>
+    <t>16 ? 69 = 324</t>
+  </si>
+  <si>
+    <t>91 ? 18 = 362880</t>
+  </si>
+  <si>
+    <t>86 ? 18 = 40320</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1149,6 +1229,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1258,7 +1344,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1311,6 +1397,27 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,6 +1440,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,15 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1359,7 +1466,127 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3" tint="0.39985351115451523"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1934,11 +2161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1947,7 +2174,7 @@
     <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="20" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
@@ -1957,26 +2184,26 @@
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="14"/>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -2028,11 +2255,11 @@
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2048,11 +2275,8 @@
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="14">
-        <v>35</v>
+      <c r="F4" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>111</v>
@@ -2067,7 +2291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2083,11 +2307,8 @@
       <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="14">
-        <v>36</v>
+      <c r="F5" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>113</v>
@@ -2102,7 +2323,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2118,26 +2339,23 @@
       <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="14">
-        <v>37</v>
+      <c r="F6" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>135</v>
+        <v>209</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2153,26 +2371,25 @@
       <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="14">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>137</v>
+      <c r="F7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2188,11 +2405,20 @@
       <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2208,32 +2434,27 @@
       <c r="E9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="14">
-        <v>39</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>246</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="12" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2249,27 +2470,23 @@
       <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="14">
-        <v>40</v>
-      </c>
+      <c r="F10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="I10" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="12" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2285,27 +2502,23 @@
       <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="14">
-        <v>41</v>
-      </c>
+      <c r="F11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="28"/>
       <c r="I11" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="12" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2321,26 +2534,15 @@
       <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="14">
-        <v>42</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2356,26 +2558,27 @@
       <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="14">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="12" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="N13" s="32"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2391,26 +2594,24 @@
       <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="14">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2426,26 +2627,23 @@
       <c r="E15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="14">
-        <v>45</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>175</v>
+        <v>72</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>177</v>
+        <v>305</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2461,26 +2659,20 @@
       <c r="E16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="14">
-        <v>46</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>245</v>
+        <v>73</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2496,23 +2688,20 @@
       <c r="D17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="14">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2528,29 +2717,22 @@
       <c r="D18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="14">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="12" t="s">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
+        <v>312</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -2565,24 +2747,25 @@
       <c r="D19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="14">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -2597,27 +2780,23 @@
       <c r="D20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="14">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="12" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -2635,27 +2814,26 @@
       <c r="E21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="14">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>281</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="12" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -2673,24 +2851,26 @@
       <c r="E22" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="14">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="12" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -2708,24 +2888,17 @@
       <c r="E23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="14">
-        <v>53</v>
+      <c r="F23" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -2743,29 +2916,14 @@
       <c r="E24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="14">
-        <v>54</v>
+      <c r="F24" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
+        <v>303</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -2783,29 +2941,14 @@
       <c r="E25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="14">
-        <v>55</v>
+      <c r="F25" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
+        <v>289</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -2823,952 +2966,1236 @@
       <c r="E26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="14">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="J26" s="5"/>
       <c r="K26" s="12" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N26" s="32"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>25</v>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="H27" s="14">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>27</v>
+      <c r="B28" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>26</v>
+        <v>137</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="H28" s="14">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>26</v>
+      <c r="B29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="H29" s="14">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
+      <c r="B30" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="14">
         <v>84</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="14">
-        <v>60</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>31</v>
+      <c r="B31" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="14">
         <v>85</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="14">
-        <v>61</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>24</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>26</v>
+      <c r="B32" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="H32" s="14">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>229</v>
+        <v>296</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>26</v>
+      <c r="B33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="H33" s="14">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>298</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="K33" s="12" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-    </row>
-    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="14">
-        <v>64</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="14">
-        <v>65</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="14">
-        <v>66</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D56" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F56" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H37" s="14">
+    </row>
+    <row r="57" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>67</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="12" t="s">
+      <c r="C71" s="5"/>
+      <c r="D71" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="E71" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="F71" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="14">
-        <v>68</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="L38" s="12" t="s">
+    </row>
+    <row r="72" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="C72" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="14">
-        <v>69</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
-    </row>
-    <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="14">
-        <v>70</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J41" s="5"/>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="14">
-        <v>71</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="14">
-        <v>72</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H44" s="14">
-        <v>73</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="N44" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="O44" s="29"/>
-      <c r="P44" s="30"/>
-    </row>
-    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="14">
-        <v>74</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="14">
-        <v>75</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="N46" s="15"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-    </row>
-    <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="14">
-        <v>76</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="14">
-        <v>77</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="14">
-        <v>78</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="30"/>
-    </row>
-    <row r="50" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="14">
-        <v>79</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="14">
-        <v>80</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I52" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="53" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I53" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I54" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I55" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-    </row>
-    <row r="56" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I57" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I59" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I60" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I61" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="30"/>
-    </row>
-    <row r="62" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I62" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="8:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I64" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="65" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I65" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="66" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I66" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I70" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I71" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J71" s="1" t="s">
+      <c r="G72" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="9:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I72" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N49:P49"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N19:P19"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1 A1:G1 A3:G9 A10:F11 L20:XFD20 A12:G16 A17:A18 E17:G18 I6:K8 L3:XFD8 A19:G1048576 I9:J10 M9:XFD12 M1:XFD1 I13:XFD16 M17:XFD17 I18:N18 Q18:XFD18 I19:XFD19 I22:J23 M21:XFD23 Q24:XFD25 I24:M25 I26:XFD27 Q28:XFD62 I63:XFD1048576">
-    <cfRule type="expression" dxfId="32" priority="41">
+  <conditionalFormatting sqref="I1 A1:G1 A3:G9 A10:F11 A12:G16 A17:A18 E17:G18 M1:XFD1 L3:XFD5 N6:XFD7 A35:F35 A27:A45 G29:G1048576 A46:F56 A73:F1048576 A57:A72 S8:XFD1048576 Q7:R1048576 I28:P1048576 A19:G28 I27:L33">
+    <cfRule type="expression" dxfId="47" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:K5">
-    <cfRule type="expression" dxfId="31" priority="36">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:K20">
-    <cfRule type="expression" dxfId="30" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L10">
-    <cfRule type="expression" dxfId="29" priority="34">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:J11">
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:L11">
-    <cfRule type="expression" dxfId="27" priority="32">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:J12">
-    <cfRule type="expression" dxfId="26" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L12">
-    <cfRule type="expression" dxfId="25" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L17">
-    <cfRule type="expression" dxfId="24" priority="29">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="23" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="22" priority="27">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="21" priority="26">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="20" priority="25">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="19" priority="24">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="18" priority="23">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="17" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="16" priority="21">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43 I44:N44 M43:P43 I45:P45 M46 I46:J50 M47:P48 M49:N49 M50:P50">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46">
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:P28">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:P54 I55:M55 I56:P60 I61:N61 I62:P62 I51:J51 M51:P51">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N55">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:M33 I34:P38 I39:N39 I40:P41 I42:J42 M42:P42 I29:P32">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:L49">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
+    <cfRule type="expression" dxfId="46" priority="88">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:N7 I8:P8 M9 M10:P12 M13:N13 M14:P14 I9:J14">
+    <cfRule type="expression" dxfId="45" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="44" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:P18 I19:M19 I20:P25 I26:N26 I27:P27 M15:P15 I14:J15 I15:L26">
+    <cfRule type="expression" dxfId="43" priority="67">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="expression" dxfId="42" priority="66">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L13">
+    <cfRule type="expression" dxfId="41" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="expression" dxfId="40" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="39" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="38" priority="54">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="expression" dxfId="37" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:F31 B29:F30 B33:C34 F32:F34">
+    <cfRule type="expression" dxfId="36" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:D31">
+    <cfRule type="expression" dxfId="35" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="34" priority="49">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="33" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="32" priority="47">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="31" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="30" priority="45">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="29" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F39">
+    <cfRule type="expression" dxfId="28" priority="43">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:F40">
+    <cfRule type="expression" dxfId="27" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:F41">
+    <cfRule type="expression" dxfId="26" priority="41">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:C42 F42">
+    <cfRule type="expression" dxfId="25" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="24" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="23" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F43">
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:E44">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:C45 F45">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:C58 F57:F60 B61:F64">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:E58">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:C59">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:E59">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:C60">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60:E60">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:M6">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:F65">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:F66">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:F67">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:F72">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
+  <conditionalFormatting sqref="L16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
